--- a/Test case_backlog.xlsx
+++ b/Test case_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BE431E-6D40-43B5-9091-8D209A38789A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE2905-61E1-44EC-A150-E0A6049E7755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -135,51 +135,21 @@
     <t>TC-01</t>
   </si>
   <si>
-    <t>Object of theatre should be displayed</t>
-  </si>
-  <si>
     <t>To validate theatreId whether it contains 4 digits or not</t>
   </si>
   <si>
     <t>Enter theatre Id</t>
   </si>
   <si>
-    <t>To validate theatreId whether it started with 2</t>
-  </si>
-  <si>
-    <t>TheatreId should start with 2</t>
-  </si>
-  <si>
-    <t>Should display true</t>
-  </si>
-  <si>
-    <t>To validate whether theatreId  exists</t>
-  </si>
-  <si>
-    <t>The mentioned theatreId is not present</t>
-  </si>
-  <si>
     <t>TC-04</t>
   </si>
   <si>
-    <t>To validate the theatre manager's contact number</t>
-  </si>
-  <si>
-    <t>Enter contact number</t>
-  </si>
-  <si>
-    <t>Contact number must be of 10 digits</t>
-  </si>
-  <si>
     <t>TC-05</t>
   </si>
   <si>
     <t>Object of show should be displayed</t>
   </si>
   <si>
-    <t>To validate showId</t>
-  </si>
-  <si>
     <t>Enter showId</t>
   </si>
   <si>
@@ -189,43 +159,100 @@
     <t>TC-06</t>
   </si>
   <si>
-    <t>To validate the theatre name</t>
-  </si>
-  <si>
-    <t>Enter theatreName</t>
-  </si>
-  <si>
     <t>&lt;blank&gt;</t>
   </si>
   <si>
-    <t>TheatreName should not be blank</t>
-  </si>
-  <si>
     <t>TC-07</t>
   </si>
   <si>
-    <t>To validate the show name</t>
-  </si>
-  <si>
-    <t>Enter showName</t>
-  </si>
-  <si>
-    <t>Show name should not be blank</t>
-  </si>
-  <si>
     <t>TC-08</t>
   </si>
   <si>
     <t>Object of screen should be displayed</t>
   </si>
   <si>
-    <t>To validate the screen name</t>
-  </si>
-  <si>
-    <t>Enter screenName</t>
-  </si>
-  <si>
-    <t>Screen name cannot be blank</t>
+    <t>If given theatre id is not present then it should display 'invalid theatreId'.</t>
+  </si>
+  <si>
+    <t>To validate the screen Id whether it contains 4 digits</t>
+  </si>
+  <si>
+    <t>Enter screenId</t>
+  </si>
+  <si>
+    <t>Screenid should be 4 digits</t>
+  </si>
+  <si>
+    <t>screenid should not be blank</t>
+  </si>
+  <si>
+    <t>Enter screen Id</t>
+  </si>
+  <si>
+    <t>If given screenid is not present then it should display 'invalid'</t>
+  </si>
+  <si>
+    <t>List of screens should be displayed</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>Enter ScreenId</t>
+  </si>
+  <si>
+    <t>If the given screenId is not present then it should print 'invalid screenid'</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>If the given showId is not present then it should print'Invalid showId'</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>List of shows should be displayed</t>
+  </si>
+  <si>
+    <t>if the given theatreId is not present then it should print'Invalid theatreId'</t>
+  </si>
+  <si>
+    <t>To validate theatreId whether it is exists (for adding screen to the given theatreId)</t>
+  </si>
+  <si>
+    <t>To validate whether screenId  exists(for updating screen)</t>
+  </si>
+  <si>
+    <t>To validate the theatreId exits or not (for printing all the screens in particular theatre).</t>
+  </si>
+  <si>
+    <t>To validate showId whethwe it contains 8 digits</t>
+  </si>
+  <si>
+    <t>To validate the theatre name (search show by theatre name)</t>
+  </si>
+  <si>
+    <t>Enter theatre name</t>
+  </si>
+  <si>
+    <t>prathima</t>
+  </si>
+  <si>
+    <t>If the given theatrename is not present then it should print invalid theatreName</t>
+  </si>
+  <si>
+    <t>To validate the screen Id</t>
+  </si>
+  <si>
+    <t>To validate the screenId whether it exists or not(for adding shows to the particular screenid)</t>
+  </si>
+  <si>
+    <t>To validate the theatreId exits or not(to print all the shows in particular theatreId).</t>
+  </si>
+  <si>
+    <t>To validate the showId(for deleting the respected show).</t>
   </si>
 </sst>
 </file>
@@ -755,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +800,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,18 +850,18 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>15</v>
@@ -849,24 +876,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="19">
         <v>1123</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>17</v>
@@ -875,24 +902,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E5" s="21">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>17</v>
@@ -901,24 +928,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>123</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>17</v>
@@ -929,22 +956,22 @@
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>123</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>17</v>
@@ -955,22 +982,22 @@
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>17</v>
@@ -979,24 +1006,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>17</v>
@@ -1007,27 +1034,105 @@
     </row>
     <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1233</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1234</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Test case_backlog.xlsx
+++ b/Test case_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE2905-61E1-44EC-A150-E0A6049E7755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED346367-5799-47C0-BA0E-DCD355F727F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;&lt;blank&gt;&gt;    </t>
-  </si>
-  <si>
-    <t>Error message:Please fill out this field</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -129,130 +123,100 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC-01</t>
-  </si>
-  <si>
-    <t>To validate theatreId whether it contains 4 digits or not</t>
-  </si>
-  <si>
     <t>Enter theatre Id</t>
   </si>
   <si>
-    <t>TC-04</t>
-  </si>
-  <si>
-    <t>TC-05</t>
-  </si>
-  <si>
     <t>Object of show should be displayed</t>
   </si>
   <si>
     <t>Enter showId</t>
   </si>
   <si>
-    <t>showId should contain 8 digits</t>
-  </si>
-  <si>
-    <t>TC-06</t>
-  </si>
-  <si>
     <t>&lt;blank&gt;</t>
   </si>
   <si>
-    <t>TC-07</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
     <t>Object of screen should be displayed</t>
   </si>
   <si>
-    <t>If given theatre id is not present then it should display 'invalid theatreId'.</t>
-  </si>
-  <si>
-    <t>To validate the screen Id whether it contains 4 digits</t>
-  </si>
-  <si>
-    <t>Enter screenId</t>
-  </si>
-  <si>
-    <t>Screenid should be 4 digits</t>
-  </si>
-  <si>
-    <t>screenid should not be blank</t>
-  </si>
-  <si>
     <t>Enter screen Id</t>
   </si>
   <si>
-    <t>If given screenid is not present then it should display 'invalid'</t>
-  </si>
-  <si>
     <t>List of screens should be displayed</t>
   </si>
   <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>Enter ScreenId</t>
-  </si>
-  <si>
-    <t>If the given screenId is not present then it should print 'invalid screenid'</t>
-  </si>
-  <si>
-    <t>TC-10</t>
-  </si>
-  <si>
     <t>If the given showId is not present then it should print'Invalid showId'</t>
   </si>
   <si>
-    <t>TC-11</t>
-  </si>
-  <si>
     <t>List of shows should be displayed</t>
   </si>
   <si>
-    <t>if the given theatreId is not present then it should print'Invalid theatreId'</t>
-  </si>
-  <si>
-    <t>To validate theatreId whether it is exists (for adding screen to the given theatreId)</t>
-  </si>
-  <si>
-    <t>To validate whether screenId  exists(for updating screen)</t>
-  </si>
-  <si>
-    <t>To validate the theatreId exits or not (for printing all the screens in particular theatre).</t>
-  </si>
-  <si>
-    <t>To validate showId whethwe it contains 8 digits</t>
-  </si>
-  <si>
-    <t>To validate the theatre name (search show by theatre name)</t>
-  </si>
-  <si>
-    <t>Enter theatre name</t>
-  </si>
-  <si>
-    <t>prathima</t>
-  </si>
-  <si>
-    <t>If the given theatrename is not present then it should print invalid theatreName</t>
-  </si>
-  <si>
-    <t>To validate the screen Id</t>
-  </si>
-  <si>
-    <t>To validate the screenId whether it exists or not(for adding shows to the particular screenid)</t>
-  </si>
-  <si>
-    <t>To validate the theatreId exits or not(to print all the shows in particular theatreId).</t>
-  </si>
-  <si>
-    <t>To validate the showId(for deleting the respected show).</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>If given screenid is not present then it should display 'ScreenId not foundf'</t>
+  </si>
+  <si>
+    <t>Inception*^%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method not found </t>
+  </si>
+  <si>
+    <t>If given theatre id is exists then it should print the list</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>Enter movie Id</t>
+  </si>
+  <si>
+    <t>if the given movieId is present then it should list all respected shows</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t>TC-5</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t>To validate the movieId for adding show</t>
+  </si>
+  <si>
+    <t>To validate theatreId for adding screen</t>
+  </si>
+  <si>
+    <t>To validate whether screenId  for delete operation</t>
+  </si>
+  <si>
+    <t>To validate the theatreId to list all the respected screens</t>
+  </si>
+  <si>
+    <t>To validate the showId to delete</t>
+  </si>
+  <si>
+    <t>To validate the Whether the movieId list all respected shows</t>
+  </si>
+  <si>
+    <t>TC-7</t>
+  </si>
+  <si>
+    <t>To validate the screenId for updating the screen</t>
+  </si>
+  <si>
+    <t>ScreenId not found</t>
+  </si>
+  <si>
+    <t>TC-8</t>
+  </si>
+  <si>
+    <t>If the screenId is present then it will display the screen Obejct</t>
   </si>
 </sst>
 </file>
@@ -416,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,20 +412,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -850,291 +802,216 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1123</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="21">
-        <v>12</v>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>123</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>18</v>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>123</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>18</v>
+    <row r="10" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>123</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1233</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1234</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
